--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฃ(1).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฃ(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2567_ROYIN\ROYIN Dictionary dataset\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612074F-3181-4408-8752-1C9F9EB58EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1612074F-3181-4408-8752-1C9F9EB58EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB627607-2D55-43BD-B565-55A73800A858}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="2730" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,31 +34,34 @@
     <t>ฃ</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๓ เรียกว่า ฃอ ขวด เป็นอักษรสูง ปัจจุบันเลิกใช้แล้ว.</t>
-  </si>
-  <si>
     <t>related_word</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๓ เรียกว่า ฃอ ขวด เป็นอักษรสูง ปัจจุบันเลิกใช้แล้ว.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -102,20 +105,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,6 +132,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,41 +427,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="20.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
